--- a/target/classes/caseconf/SaveGrant/Case_SaveGrant.xlsx
+++ b/target/classes/caseconf/SaveGrant/Case_SaveGrant.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="110">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -342,16 +342,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "tenantId":"consume",
- "userId":694220228018913280,
- "typeId":3,
- "status":1,
- "requestId":"000025"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-requestId缺失</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -376,168 +366,39 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantId': rejected value []; codes [NotEmpty.grantCreateRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [tenant id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-tuserId为空</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "JSON parse error: Unexpected character (',' (code 44)): expected a value; nested exception is com.fasterxml.jackson.core.JsonParseException: Unexpected character (',' (code 44)): expected a value\n at [Source: (PushbackInputStream); line: 3, column: 12]"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-typeId为空</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "JSON parse error: Unexpected character (',' (code 44)): expected a value; nested exception is com.fasterxml.jackson.core.JsonParseException: Unexpected character (',' (code 44)): expected a value\n at [Source: (PushbackInputStream); line: 4, column: 12]"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-account为空</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'account': rejected value []; codes [NotEmpty.grantCreateRequest.account,NotEmpty.account,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.account,account]; arguments []; default message [account]]; default message [account cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-status为空</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "JSON parse error: Unexpected character (',' (code 44)): expected a value; nested exception is com.fasterxml.jackson.core.JsonParseException: Unexpected character (',' (code 44)): expected a value\n at [Source: (PushbackInputStream); line: 6, column: 12]"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-requestId为空</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'requestId': rejected value []; codes [NotEmpty.grantCreateRequest.requestId,NotEmpty.requestId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.requestId,requestId]; arguments []; default message [requestId]]; default message [request id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.grantCreateRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [tenant id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-userId缺失</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'userId': rejected value [null]; codes [NotNull.grantCreateRequest.userId,NotNull.userId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.userId,userId]; arguments []; default message [userId]]; default message [user id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-typeId缺失</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'typeId': rejected value [null]; codes [NotNull.grantCreateRequest.typeId,NotNull.typeId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.typeId,typeId]; arguments []; default message [typeId]]; default message [type id cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-account缺失</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'account': rejected value [null]; codes [NotEmpty.grantCreateRequest.account,NotEmpty.account,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.account,account]; arguments []; default message [account]]; default message [account cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>必传参数-status缺失</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> "tenantId":"consume",
- "userId":693139927632920576,
- "typeId":2,
- "account":"12321312",
- "status":"",
- "info":{},
- "requestId":"00002333"
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'status': rejected value []; codes [NotEmpty.grantCreateRequest.status,NotEmpty.status,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.status,status]; arguments []; default message [status]]; default message [status cannot be null]] "
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId":"consume",
- "userId":693144268771115008,
- "typeId":3,
- "status":1,
- "account":"11111",
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "resCode": "E0001",
-    "resMsg": "系统错误",
-    "successful": 0,
-    "data": "JSON parse error: Unexpected character ('}' (code 125)): was expecting double-quote to start field name; nested exception is com.fasterxml.jackson.core.JsonParseException: Unexpected character ('}' (code 125)): was expecting double-quote to start field name\n at [Source: (PushbackInputStream); line: 8, column: 2]"
-}</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -780,6 +641,264 @@
   <si>
     <t>POST</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantUserId': rejected value [null]; codes [NotEmpty.grantCreateRequest.tenantUserId,NotEmpty.tenantUserId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'typeId': rejected value [null]; codes [NotNull.grantCreateRequest.typeId,NotNull.typeId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.typeId,typeId]; arguments []; default message [typeId]]; default message [type id cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'account': rejected value [null]; codes [NotEmpty.grantCreateRequest.account,NotEmpty.account,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.account,account]; arguments []; default message [account]]; default message [account cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":235,
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'status': rejected value [null]; codes [NotEmpty.grantCreateRequest.status,NotEmpty.status,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.status,status]; arguments []; default message [status]]; default message [status cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "account":"11111"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'requestId': rejected value [null]; codes [NotEmpty.grantCreateRequest.requestId,NotEmpty.requestId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.requestId,requestId]; arguments []; default message [requestId]]; default message [request id cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+ "tenantId":"",
+ "tenantUserId":"000113",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":2,
+ "status":"success",
+ "info":{},
+ "account":"",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":2,
+ "status":"sucess",
+ "info":{},
+ "account":"11111",
+ "requestId":""
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantId': rejected value []; codes [NotEmpty.grantCreateRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户信息所属渠道id不允许为空]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":"",
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'account': rejected value []; codes [NotEmpty.grantCreateRequest.account,NotEmpty.account,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.account,account]; arguments []; default message [account]]; default message [account cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"000113",
+ "typeId":2,
+ "status":"",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'status': rejected value []; codes [NotEmpty.grantCreateRequest.status,NotEmpty.status,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.status,status]; arguments []; default message [status]]; default message [status cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'requestId': rejected value []; codes [NotEmpty.grantCreateRequest.requestId,NotEmpty.requestId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.requestId,requestId]; arguments []; default message [requestId]]; default message [request id cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantUserId":"000113",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantId': rejected value [null]; codes [NotEmpty.grantCreateRequest.tenantId,NotEmpty.tenantId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantId,tenantId]; arguments []; default message [tenantId]]; default message [用户信息所属渠道id不允许为空]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'typeId': rejected value [null]; codes [NotNull.grantCreateRequest.typeId,NotNull.typeId,NotNull.java.lang.Long,NotNull]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.typeId,typeId]; arguments []; default message [typeId]]; default message [type id cannot be null]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId":"1001",
+ "tenantUserId":"",
+ "typeId":235,
+ "status":"success",
+ "info":{},
+ "account":"11111",
+ "requestId":"000027"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode": "E0001",
+    "resMsg": "系统错误",
+    "successful": 0,
+    "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.GrantController.saveGrant(***.web.request.GrantCreateRequest): [Field error in object 'grantCreateRequest' on field 'tenantUserId': rejected value []; codes [NotEmpty.grantCreateRequest.tenantUserId,NotEmpty.tenantUserId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [grantCreateRequest.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1394,7 +1513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1460,16 +1579,16 @@
         <v>12</v>
       </c>
       <c r="N1" s="37" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="O1" s="37" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="372.5" customHeight="1">
@@ -1477,7 +1596,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C2" s="35" t="s">
         <v>15</v>
@@ -1485,32 +1604,32 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
       <c r="F2" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="144" customHeight="1">
@@ -1518,7 +1637,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C3" s="35" t="s">
         <v>18</v>
@@ -1526,32 +1645,32 @@
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="19" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="80.5" customHeight="1">
@@ -1559,7 +1678,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>19</v>
@@ -1567,10 +1686,10 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="19" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>14</v>
@@ -1579,14 +1698,14 @@
         <v>16</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="18" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="N4" s="39"/>
       <c r="O4" s="45"/>
@@ -1596,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>20</v>
@@ -1604,10 +1723,10 @@
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>14</v>
@@ -1616,26 +1735,26 @@
         <v>16</v>
       </c>
       <c r="J5" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="O5" s="48" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="52" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="409.5">
@@ -1643,7 +1762,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C6" s="35" t="s">
         <v>21</v>
@@ -1651,32 +1770,32 @@
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L6" s="16"/>
       <c r="M6" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O6" s="48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="409.5">
@@ -1684,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C7" s="35" t="s">
         <v>22</v>
@@ -1692,10 +1811,10 @@
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
       <c r="F7" s="19" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>14</v>
@@ -1704,20 +1823,20 @@
         <v>26</v>
       </c>
       <c r="J7" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="O7" s="48" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="126">
@@ -1725,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C8" s="35" t="s">
         <v>23</v>
@@ -1741,14 +1860,14 @@
         <v>26</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="409.5">
@@ -1756,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>24</v>
@@ -1764,32 +1883,34 @@
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
       <c r="F9" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="H9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="11" customFormat="1" ht="50" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="11" customFormat="1" ht="138" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C10" s="35" t="s">
         <v>25</v>
@@ -1805,25 +1926,27 @@
         <v>26</v>
       </c>
       <c r="J10" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>96</v>
+      </c>
       <c r="L10" s="16"/>
       <c r="M10" s="18" t="s">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="N10" s="41"/>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:17" s="11" customFormat="1" ht="154">
+    <row r="11" spans="1:17" s="11" customFormat="1" ht="266">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -1836,12 +1959,14 @@
         <v>26</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>108</v>
+      </c>
       <c r="L11" s="16"/>
       <c r="M11" s="18" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="N11" s="41"/>
       <c r="O11" s="46"/>
@@ -1851,10 +1976,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -1867,12 +1992,14 @@
         <v>26</v>
       </c>
       <c r="J12" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="L12" s="16"/>
       <c r="M12" s="18" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="N12" s="42"/>
       <c r="O12" s="26"/>
@@ -1882,10 +2009,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -1898,25 +2025,27 @@
         <v>26</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="L13" s="16"/>
       <c r="M13" s="18" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="47"/>
     </row>
-    <row r="14" spans="1:17" s="11" customFormat="1" ht="154">
+    <row r="14" spans="1:17" s="11" customFormat="1" ht="252">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -1929,12 +2058,14 @@
         <v>26</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>102</v>
+      </c>
       <c r="L14" s="16"/>
       <c r="M14" s="18" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N14" s="41"/>
       <c r="O14" s="12"/>
@@ -1944,10 +2075,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -1960,12 +2091,14 @@
         <v>26</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="L15" s="16"/>
       <c r="M15" s="18" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="12"/>
@@ -1975,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C16" s="35" t="s">
         <v>27</v>
@@ -1991,25 +2124,27 @@
         <v>26</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>105</v>
+      </c>
       <c r="L16" s="16"/>
       <c r="M16" s="18" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="252">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="266">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2022,12 +2157,14 @@
         <v>26</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="L17" s="16"/>
       <c r="M17" s="18" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="N17" s="41"/>
       <c r="O17" s="12"/>
@@ -2037,10 +2174,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -2053,12 +2190,14 @@
         <v>26</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="L18" s="16"/>
       <c r="M18" s="18" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="N18" s="41"/>
       <c r="O18" s="12"/>
@@ -2068,10 +2207,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -2084,14 +2223,14 @@
         <v>26</v>
       </c>
       <c r="J19" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="18" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="12"/>
@@ -2101,10 +2240,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2117,14 +2256,14 @@
         <v>26</v>
       </c>
       <c r="J20" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="18" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="12"/>
@@ -2134,10 +2273,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2150,14 +2289,14 @@
         <v>16</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="18" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N21" s="41"/>
       <c r="O21" s="12"/>
